--- a/lib/seeds/phrases.xlsx
+++ b/lib/seeds/phrases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkolokolov/code/escapist-berlin/du_und_ich/lib/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313B90F2-8FFC-CF4D-B798-249EE7AA7A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2364CD-7D7F-6E44-8DFD-2A4017681760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="780" windowWidth="23880" windowHeight="17320" xr2:uid="{8D37ADAD-6A58-CA44-B564-CD4B0BD8DEF4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{8D37ADAD-6A58-CA44-B564-CD4B0BD8DEF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -5137,8 +5137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13971AE1-4BAB-3F43-8789-0FC39AEDE467}">
   <dimension ref="A1:D1255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1222" workbookViewId="0">
-      <selection activeCell="F1240" sqref="F1240"/>
+    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
+      <selection activeCell="E875" sqref="E875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5173,7 +5173,7 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5187,7 +5187,7 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5201,7 +5201,7 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5215,7 +5215,7 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5229,7 +5229,7 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5243,7 +5243,7 @@
         <v>57</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5257,7 +5257,7 @@
         <v>84</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5271,7 +5271,7 @@
         <v>99</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5285,7 +5285,7 @@
         <v>117</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5299,7 +5299,7 @@
         <v>144</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5313,7 +5313,7 @@
         <v>144</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -5327,7 +5327,7 @@
         <v>173</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -5341,7 +5341,7 @@
         <v>221</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5355,7 +5355,7 @@
         <v>282</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5369,7 +5369,7 @@
         <v>392</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -5383,7 +5383,7 @@
         <v>422</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -5397,7 +5397,7 @@
         <v>553</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -5411,7 +5411,7 @@
         <v>569</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -5425,7 +5425,7 @@
         <v>52</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -5439,7 +5439,7 @@
         <v>53</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -5453,7 +5453,7 @@
         <v>54</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5467,7 +5467,7 @@
         <v>55</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -5481,7 +5481,7 @@
         <v>56</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -5495,7 +5495,7 @@
         <v>57</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -5509,7 +5509,7 @@
         <v>96</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -5523,7 +5523,7 @@
         <v>58</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -5537,7 +5537,7 @@
         <v>201</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -5551,7 +5551,7 @@
         <v>202</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5565,7 +5565,7 @@
         <v>225</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5579,7 +5579,7 @@
         <v>59</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -5593,7 +5593,7 @@
         <v>247</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -5607,7 +5607,7 @@
         <v>249</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -5621,7 +5621,7 @@
         <v>253</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -5635,7 +5635,7 @@
         <v>262</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -5649,7 +5649,7 @@
         <v>275</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -5663,7 +5663,7 @@
         <v>277</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -5677,7 +5677,7 @@
         <v>308</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -5691,7 +5691,7 @@
         <v>318</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -5705,7 +5705,7 @@
         <v>322</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -5719,7 +5719,7 @@
         <v>358</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -5733,7 +5733,7 @@
         <v>396</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -5747,7 +5747,7 @@
         <v>428</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -5761,7 +5761,7 @@
         <v>449</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -5775,7 +5775,7 @@
         <v>60</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -5789,7 +5789,7 @@
         <v>482</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -5803,7 +5803,7 @@
         <v>550</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -5817,7 +5817,7 @@
         <v>61</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -5831,7 +5831,7 @@
         <v>165</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -5845,7 +5845,7 @@
         <v>166</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -5859,7 +5859,7 @@
         <v>167</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -5873,7 +5873,7 @@
         <v>168</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -5887,7 +5887,7 @@
         <v>19</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -5901,7 +5901,7 @@
         <v>169</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -5915,7 +5915,7 @@
         <v>170</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -5929,7 +5929,7 @@
         <v>171</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -5943,7 +5943,7 @@
         <v>172</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -5957,7 +5957,7 @@
         <v>173</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -5971,7 +5971,7 @@
         <v>45</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -5985,7 +5985,7 @@
         <v>174</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -5999,7 +5999,7 @@
         <v>75</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -6013,7 +6013,7 @@
         <v>75</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -6027,7 +6027,7 @@
         <v>175</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -6041,7 +6041,7 @@
         <v>176</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -6055,7 +6055,7 @@
         <v>177</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -6069,7 +6069,7 @@
         <v>95</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -6083,7 +6083,7 @@
         <v>178</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -6097,7 +6097,7 @@
         <v>179</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -6111,7 +6111,7 @@
         <v>180</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -6125,7 +6125,7 @@
         <v>181</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -6139,7 +6139,7 @@
         <v>147</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -6153,7 +6153,7 @@
         <v>182</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -6167,7 +6167,7 @@
         <v>183</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -6181,7 +6181,7 @@
         <v>166</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -6195,7 +6195,7 @@
         <v>184</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -6209,7 +6209,7 @@
         <v>167</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -6223,7 +6223,7 @@
         <v>189</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -6237,7 +6237,7 @@
         <v>195</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -6251,7 +6251,7 @@
         <v>185</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -6265,7 +6265,7 @@
         <v>204</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -6279,7 +6279,7 @@
         <v>204</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -6293,7 +6293,7 @@
         <v>207</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -6307,7 +6307,7 @@
         <v>210</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -6321,7 +6321,7 @@
         <v>186</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -6335,7 +6335,7 @@
         <v>212</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -6349,7 +6349,7 @@
         <v>212</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -6363,7 +6363,7 @@
         <v>213</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -6377,7 +6377,7 @@
         <v>187</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -6391,7 +6391,7 @@
         <v>188</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -6405,7 +6405,7 @@
         <v>226</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -6419,7 +6419,7 @@
         <v>227</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -6433,7 +6433,7 @@
         <v>227</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -6447,7 +6447,7 @@
         <v>189</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -6461,7 +6461,7 @@
         <v>190</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -6475,7 +6475,7 @@
         <v>281</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -6489,7 +6489,7 @@
         <v>285</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -6503,7 +6503,7 @@
         <v>307</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -6517,7 +6517,7 @@
         <v>307</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -6531,7 +6531,7 @@
         <v>308</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -6545,7 +6545,7 @@
         <v>315</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -6559,7 +6559,7 @@
         <v>319</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -6573,7 +6573,7 @@
         <v>319</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -6587,7 +6587,7 @@
         <v>327</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -6601,7 +6601,7 @@
         <v>328</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -6615,7 +6615,7 @@
         <v>343</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -6629,7 +6629,7 @@
         <v>352</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -6643,7 +6643,7 @@
         <v>191</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -6657,7 +6657,7 @@
         <v>192</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -6671,7 +6671,7 @@
         <v>364</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -6685,7 +6685,7 @@
         <v>193</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -6699,7 +6699,7 @@
         <v>367</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -6713,7 +6713,7 @@
         <v>194</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -6727,7 +6727,7 @@
         <v>376</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -6741,7 +6741,7 @@
         <v>385</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -6755,7 +6755,7 @@
         <v>392</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -6769,7 +6769,7 @@
         <v>394</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -6783,7 +6783,7 @@
         <v>195</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -6797,7 +6797,7 @@
         <v>407</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -6811,7 +6811,7 @@
         <v>410</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -6825,7 +6825,7 @@
         <v>196</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -6839,7 +6839,7 @@
         <v>411</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -6853,7 +6853,7 @@
         <v>414</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -6867,7 +6867,7 @@
         <v>418</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -6881,7 +6881,7 @@
         <v>450</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -6895,7 +6895,7 @@
         <v>458</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -6909,7 +6909,7 @@
         <v>458</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -6923,7 +6923,7 @@
         <v>461</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -6937,7 +6937,7 @@
         <v>465</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -6951,7 +6951,7 @@
         <v>197</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -6965,7 +6965,7 @@
         <v>198</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -6979,7 +6979,7 @@
         <v>472</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -6993,7 +6993,7 @@
         <v>485</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -7007,7 +7007,7 @@
         <v>489</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -7021,7 +7021,7 @@
         <v>499</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -7035,7 +7035,7 @@
         <v>501</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -7049,7 +7049,7 @@
         <v>509</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -7063,7 +7063,7 @@
         <v>510</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -7077,7 +7077,7 @@
         <v>511</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -7091,7 +7091,7 @@
         <v>544</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -7105,7 +7105,7 @@
         <v>544</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -7119,7 +7119,7 @@
         <v>549</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -7133,7 +7133,7 @@
         <v>555</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -7147,7 +7147,7 @@
         <v>559</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -7161,7 +7161,7 @@
         <v>562</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -7175,7 +7175,7 @@
         <v>564</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -7189,7 +7189,7 @@
         <v>583</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -7203,7 +7203,7 @@
         <v>585</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -7217,7 +7217,7 @@
         <v>585</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -7231,7 +7231,7 @@
         <v>586</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -7245,7 +7245,7 @@
         <v>588</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -7259,7 +7259,7 @@
         <v>588</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -7273,7 +7273,7 @@
         <v>358</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -7287,7 +7287,7 @@
         <v>359</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -7301,7 +7301,7 @@
         <v>17</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -7315,7 +7315,7 @@
         <v>28</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -7329,7 +7329,7 @@
         <v>360</v>
       </c>
       <c r="D156">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -7343,7 +7343,7 @@
         <v>31</v>
       </c>
       <c r="D157">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -7357,7 +7357,7 @@
         <v>42</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -7371,7 +7371,7 @@
         <v>59</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -7385,7 +7385,7 @@
         <v>63</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -7399,7 +7399,7 @@
         <v>63</v>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -7413,7 +7413,7 @@
         <v>361</v>
       </c>
       <c r="D162">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -7427,7 +7427,7 @@
         <v>65</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -7441,7 +7441,7 @@
         <v>71</v>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -7455,7 +7455,7 @@
         <v>362</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -7469,7 +7469,7 @@
         <v>71</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -7483,7 +7483,7 @@
         <v>363</v>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -7497,7 +7497,7 @@
         <v>364</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -7511,7 +7511,7 @@
         <v>89</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -7525,7 +7525,7 @@
         <v>365</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -7539,7 +7539,7 @@
         <v>92</v>
       </c>
       <c r="D171">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -7553,7 +7553,7 @@
         <v>92</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -7567,7 +7567,7 @@
         <v>96</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -7581,7 +7581,7 @@
         <v>366</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -7595,7 +7595,7 @@
         <v>107</v>
       </c>
       <c r="D175">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -7609,7 +7609,7 @@
         <v>367</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -7623,7 +7623,7 @@
         <v>114</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -7637,7 +7637,7 @@
         <v>368</v>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -7651,7 +7651,7 @@
         <v>369</v>
       </c>
       <c r="D179">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -7665,7 +7665,7 @@
         <v>121</v>
       </c>
       <c r="D180">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -7679,7 +7679,7 @@
         <v>123</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -7693,7 +7693,7 @@
         <v>370</v>
       </c>
       <c r="D182">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -7707,7 +7707,7 @@
         <v>371</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -7721,7 +7721,7 @@
         <v>372</v>
       </c>
       <c r="D184">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -7735,7 +7735,7 @@
         <v>373</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -7749,7 +7749,7 @@
         <v>133</v>
       </c>
       <c r="D186">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -7763,7 +7763,7 @@
         <v>374</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -7777,7 +7777,7 @@
         <v>147</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -7791,7 +7791,7 @@
         <v>375</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -7805,7 +7805,7 @@
         <v>376</v>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -7819,7 +7819,7 @@
         <v>377</v>
       </c>
       <c r="D191">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -7833,7 +7833,7 @@
         <v>378</v>
       </c>
       <c r="D192">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -7847,7 +7847,7 @@
         <v>152</v>
       </c>
       <c r="D193">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -7861,7 +7861,7 @@
         <v>379</v>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -7875,7 +7875,7 @@
         <v>380</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -7889,7 +7889,7 @@
         <v>381</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -7903,7 +7903,7 @@
         <v>382</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -7917,7 +7917,7 @@
         <v>383</v>
       </c>
       <c r="D198">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -7931,7 +7931,7 @@
         <v>384</v>
       </c>
       <c r="D199">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -7945,7 +7945,7 @@
         <v>172</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -7959,7 +7959,7 @@
         <v>385</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -7973,7 +7973,7 @@
         <v>175</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -7987,7 +7987,7 @@
         <v>179</v>
       </c>
       <c r="D203">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -8001,7 +8001,7 @@
         <v>189</v>
       </c>
       <c r="D204">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -8015,7 +8015,7 @@
         <v>189</v>
       </c>
       <c r="D205">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -8029,7 +8029,7 @@
         <v>386</v>
       </c>
       <c r="D206">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -8043,7 +8043,7 @@
         <v>387</v>
       </c>
       <c r="D207">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -8057,7 +8057,7 @@
         <v>388</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -8071,7 +8071,7 @@
         <v>207</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -8085,7 +8085,7 @@
         <v>389</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -8099,7 +8099,7 @@
         <v>212</v>
       </c>
       <c r="D211">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -8113,7 +8113,7 @@
         <v>390</v>
       </c>
       <c r="D212">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -8127,7 +8127,7 @@
         <v>213</v>
       </c>
       <c r="D213">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -8141,7 +8141,7 @@
         <v>214</v>
       </c>
       <c r="D214">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -8155,7 +8155,7 @@
         <v>214</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -8169,7 +8169,7 @@
         <v>391</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -8183,7 +8183,7 @@
         <v>221</v>
       </c>
       <c r="D217">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -8197,7 +8197,7 @@
         <v>222</v>
       </c>
       <c r="D218">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -8211,7 +8211,7 @@
         <v>222</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -8225,7 +8225,7 @@
         <v>226</v>
       </c>
       <c r="D220">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -8239,7 +8239,7 @@
         <v>226</v>
       </c>
       <c r="D221">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -8253,7 +8253,7 @@
         <v>392</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -8267,7 +8267,7 @@
         <v>230</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -8281,7 +8281,7 @@
         <v>234</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -8295,7 +8295,7 @@
         <v>393</v>
       </c>
       <c r="D225">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -8309,7 +8309,7 @@
         <v>235</v>
       </c>
       <c r="D226">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -8323,7 +8323,7 @@
         <v>243</v>
       </c>
       <c r="D227">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -8337,7 +8337,7 @@
         <v>243</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -8351,7 +8351,7 @@
         <v>243</v>
       </c>
       <c r="D229">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -8365,7 +8365,7 @@
         <v>248</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -8379,7 +8379,7 @@
         <v>255</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -8393,7 +8393,7 @@
         <v>256</v>
       </c>
       <c r="D232">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -8407,7 +8407,7 @@
         <v>394</v>
       </c>
       <c r="D233">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -8421,7 +8421,7 @@
         <v>261</v>
       </c>
       <c r="D234">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -8435,7 +8435,7 @@
         <v>263</v>
       </c>
       <c r="D235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -8449,7 +8449,7 @@
         <v>273</v>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -8463,7 +8463,7 @@
         <v>273</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -8477,7 +8477,7 @@
         <v>273</v>
       </c>
       <c r="D238">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -8491,7 +8491,7 @@
         <v>276</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -8505,7 +8505,7 @@
         <v>395</v>
       </c>
       <c r="D240">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -8519,7 +8519,7 @@
         <v>307</v>
       </c>
       <c r="D241">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -8533,7 +8533,7 @@
         <v>307</v>
       </c>
       <c r="D242">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -8547,7 +8547,7 @@
         <v>307</v>
       </c>
       <c r="D243">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -8561,7 +8561,7 @@
         <v>308</v>
       </c>
       <c r="D244">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -8575,7 +8575,7 @@
         <v>315</v>
       </c>
       <c r="D245">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -8589,7 +8589,7 @@
         <v>396</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -8603,7 +8603,7 @@
         <v>328</v>
       </c>
       <c r="D247">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -8617,7 +8617,7 @@
         <v>330</v>
       </c>
       <c r="D248">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -8631,7 +8631,7 @@
         <v>397</v>
       </c>
       <c r="D249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -8645,7 +8645,7 @@
         <v>346</v>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -8659,7 +8659,7 @@
         <v>349</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -8673,7 +8673,7 @@
         <v>353</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -8687,7 +8687,7 @@
         <v>359</v>
       </c>
       <c r="D253">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -8701,7 +8701,7 @@
         <v>398</v>
       </c>
       <c r="D254">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -8715,7 +8715,7 @@
         <v>363</v>
       </c>
       <c r="D255">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -8729,7 +8729,7 @@
         <v>399</v>
       </c>
       <c r="D256">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -8743,7 +8743,7 @@
         <v>366</v>
       </c>
       <c r="D257">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -8757,7 +8757,7 @@
         <v>367</v>
       </c>
       <c r="D258">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -8771,7 +8771,7 @@
         <v>400</v>
       </c>
       <c r="D259">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -8785,7 +8785,7 @@
         <v>374</v>
       </c>
       <c r="D260">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -8799,7 +8799,7 @@
         <v>374</v>
       </c>
       <c r="D261">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -8813,7 +8813,7 @@
         <v>401</v>
       </c>
       <c r="D262">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -8827,7 +8827,7 @@
         <v>386</v>
       </c>
       <c r="D263">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -8841,7 +8841,7 @@
         <v>389</v>
       </c>
       <c r="D264">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -8855,7 +8855,7 @@
         <v>392</v>
       </c>
       <c r="D265">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -8869,7 +8869,7 @@
         <v>402</v>
       </c>
       <c r="D266">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -8883,7 +8883,7 @@
         <v>403</v>
       </c>
       <c r="D267">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -8897,7 +8897,7 @@
         <v>394</v>
       </c>
       <c r="D268">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -8911,7 +8911,7 @@
         <v>401</v>
       </c>
       <c r="D269">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -8925,7 +8925,7 @@
         <v>401</v>
       </c>
       <c r="D270">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -8939,7 +8939,7 @@
         <v>401</v>
       </c>
       <c r="D271">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -8953,7 +8953,7 @@
         <v>403</v>
       </c>
       <c r="D272">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -8967,7 +8967,7 @@
         <v>406</v>
       </c>
       <c r="D273">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -8981,7 +8981,7 @@
         <v>406</v>
       </c>
       <c r="D274">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -8995,7 +8995,7 @@
         <v>418</v>
       </c>
       <c r="D275">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -9009,7 +9009,7 @@
         <v>426</v>
       </c>
       <c r="D276">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -9023,7 +9023,7 @@
         <v>426</v>
       </c>
       <c r="D277">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -9037,7 +9037,7 @@
         <v>427</v>
       </c>
       <c r="D278">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -9051,7 +9051,7 @@
         <v>430</v>
       </c>
       <c r="D279">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -9065,7 +9065,7 @@
         <v>404</v>
       </c>
       <c r="D280">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -9079,7 +9079,7 @@
         <v>431</v>
       </c>
       <c r="D281">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -9093,7 +9093,7 @@
         <v>433</v>
       </c>
       <c r="D282">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -9107,7 +9107,7 @@
         <v>439</v>
       </c>
       <c r="D283">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -9121,7 +9121,7 @@
         <v>446</v>
       </c>
       <c r="D284">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -9135,7 +9135,7 @@
         <v>446</v>
       </c>
       <c r="D285">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -9149,7 +9149,7 @@
         <v>446</v>
       </c>
       <c r="D286">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -9163,7 +9163,7 @@
         <v>461</v>
       </c>
       <c r="D287">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -9177,7 +9177,7 @@
         <v>462</v>
       </c>
       <c r="D288">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -9191,7 +9191,7 @@
         <v>462</v>
       </c>
       <c r="D289">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -9205,7 +9205,7 @@
         <v>465</v>
       </c>
       <c r="D290">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -9219,7 +9219,7 @@
         <v>480</v>
       </c>
       <c r="D291">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -9233,7 +9233,7 @@
         <v>405</v>
       </c>
       <c r="D292">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -9247,7 +9247,7 @@
         <v>509</v>
       </c>
       <c r="D293">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -9261,7 +9261,7 @@
         <v>509</v>
       </c>
       <c r="D294">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -9275,7 +9275,7 @@
         <v>509</v>
       </c>
       <c r="D295">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -9289,7 +9289,7 @@
         <v>509</v>
       </c>
       <c r="D296">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -9303,7 +9303,7 @@
         <v>513</v>
       </c>
       <c r="D297">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -9317,7 +9317,7 @@
         <v>516</v>
       </c>
       <c r="D298">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -9331,7 +9331,7 @@
         <v>517</v>
       </c>
       <c r="D299">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -9345,7 +9345,7 @@
         <v>517</v>
       </c>
       <c r="D300">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -9359,7 +9359,7 @@
         <v>518</v>
       </c>
       <c r="D301">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -9373,7 +9373,7 @@
         <v>519</v>
       </c>
       <c r="D302">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -9387,7 +9387,7 @@
         <v>519</v>
       </c>
       <c r="D303">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -9401,7 +9401,7 @@
         <v>524</v>
       </c>
       <c r="D304">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -9415,7 +9415,7 @@
         <v>525</v>
       </c>
       <c r="D305">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -9429,7 +9429,7 @@
         <v>533</v>
       </c>
       <c r="D306">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -9443,7 +9443,7 @@
         <v>552</v>
       </c>
       <c r="D307">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -9457,7 +9457,7 @@
         <v>570</v>
       </c>
       <c r="D308">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -9471,7 +9471,7 @@
         <v>570</v>
       </c>
       <c r="D309">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -9485,7 +9485,7 @@
         <v>584</v>
       </c>
       <c r="D310">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -9499,7 +9499,7 @@
         <v>584</v>
       </c>
       <c r="D311">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -13251,7 +13251,7 @@
         <v>16</v>
       </c>
       <c r="D579">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
@@ -13265,7 +13265,7 @@
         <v>34</v>
       </c>
       <c r="D580">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
@@ -13279,7 +13279,7 @@
         <v>35</v>
       </c>
       <c r="D581">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
@@ -13293,7 +13293,7 @@
         <v>60</v>
       </c>
       <c r="D582">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
@@ -13307,7 +13307,7 @@
         <v>781</v>
       </c>
       <c r="D583">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
@@ -13321,7 +13321,7 @@
         <v>142</v>
       </c>
       <c r="D584">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.2">
@@ -13335,7 +13335,7 @@
         <v>782</v>
       </c>
       <c r="D585">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.2">
@@ -13349,7 +13349,7 @@
         <v>783</v>
       </c>
       <c r="D586">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
@@ -13363,7 +13363,7 @@
         <v>190</v>
       </c>
       <c r="D587">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.2">
@@ -13377,7 +13377,7 @@
         <v>784</v>
       </c>
       <c r="D588">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
@@ -13391,7 +13391,7 @@
         <v>785</v>
       </c>
       <c r="D589">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
@@ -13405,7 +13405,7 @@
         <v>786</v>
       </c>
       <c r="D590">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
@@ -13419,7 +13419,7 @@
         <v>787</v>
       </c>
       <c r="D591">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
@@ -13433,7 +13433,7 @@
         <v>788</v>
       </c>
       <c r="D592">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
@@ -13447,7 +13447,7 @@
         <v>295</v>
       </c>
       <c r="D593">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.2">
@@ -13461,7 +13461,7 @@
         <v>341</v>
       </c>
       <c r="D594">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
@@ -13475,7 +13475,7 @@
         <v>789</v>
       </c>
       <c r="D595">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
@@ -13489,7 +13489,7 @@
         <v>425</v>
       </c>
       <c r="D596">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.2">
@@ -13503,7 +13503,7 @@
         <v>437</v>
       </c>
       <c r="D597">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
@@ -13517,7 +13517,7 @@
         <v>447</v>
       </c>
       <c r="D598">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
@@ -13531,7 +13531,7 @@
         <v>790</v>
       </c>
       <c r="D599">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
@@ -13545,7 +13545,7 @@
         <v>478</v>
       </c>
       <c r="D600">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
@@ -13559,7 +13559,7 @@
         <v>791</v>
       </c>
       <c r="D601">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
@@ -13573,7 +13573,7 @@
         <v>792</v>
       </c>
       <c r="D602">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
@@ -13587,7 +13587,7 @@
         <v>543</v>
       </c>
       <c r="D603">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
@@ -13601,7 +13601,7 @@
         <v>573</v>
       </c>
       <c r="D604">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
@@ -13615,7 +13615,7 @@
         <v>573</v>
       </c>
       <c r="D605">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
@@ -13629,7 +13629,7 @@
         <v>573</v>
       </c>
       <c r="D606">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
@@ -13643,7 +13643,7 @@
         <v>576</v>
       </c>
       <c r="D607">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.2">
@@ -13657,7 +13657,7 @@
         <v>582</v>
       </c>
       <c r="D608">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
@@ -13671,7 +13671,7 @@
         <v>820</v>
       </c>
       <c r="D609">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
@@ -13685,7 +13685,7 @@
         <v>821</v>
       </c>
       <c r="D610">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
@@ -13699,7 +13699,7 @@
         <v>822</v>
       </c>
       <c r="D611">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.2">
@@ -13713,7 +13713,7 @@
         <v>8</v>
       </c>
       <c r="D612">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
@@ -13727,7 +13727,7 @@
         <v>823</v>
       </c>
       <c r="D613">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.2">
@@ -13741,7 +13741,7 @@
         <v>123</v>
       </c>
       <c r="D614">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
@@ -13755,7 +13755,7 @@
         <v>824</v>
       </c>
       <c r="D615">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
@@ -13769,7 +13769,7 @@
         <v>825</v>
       </c>
       <c r="D616">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
@@ -13783,7 +13783,7 @@
         <v>130</v>
       </c>
       <c r="D617">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
@@ -13797,7 +13797,7 @@
         <v>826</v>
       </c>
       <c r="D618">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
@@ -13811,7 +13811,7 @@
         <v>140</v>
       </c>
       <c r="D619">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
@@ -13825,7 +13825,7 @@
         <v>827</v>
       </c>
       <c r="D620">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
@@ -13839,7 +13839,7 @@
         <v>150</v>
       </c>
       <c r="D621">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.2">
@@ -13853,7 +13853,7 @@
         <v>154</v>
       </c>
       <c r="D622">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
@@ -13867,7 +13867,7 @@
         <v>828</v>
       </c>
       <c r="D623">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
@@ -13881,7 +13881,7 @@
         <v>829</v>
       </c>
       <c r="D624">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.2">
@@ -13895,7 +13895,7 @@
         <v>222</v>
       </c>
       <c r="D625">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.2">
@@ -13909,7 +13909,7 @@
         <v>830</v>
       </c>
       <c r="D626">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.2">
@@ -13923,7 +13923,7 @@
         <v>831</v>
       </c>
       <c r="D627">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.2">
@@ -13937,7 +13937,7 @@
         <v>288</v>
       </c>
       <c r="D628">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.2">
@@ -13951,7 +13951,7 @@
         <v>289</v>
       </c>
       <c r="D629">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.2">
@@ -13965,7 +13965,7 @@
         <v>296</v>
       </c>
       <c r="D630">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.2">
@@ -13979,7 +13979,7 @@
         <v>344</v>
       </c>
       <c r="D631">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.2">
@@ -13993,7 +13993,7 @@
         <v>391</v>
       </c>
       <c r="D632">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.2">
@@ -14007,7 +14007,7 @@
         <v>427</v>
       </c>
       <c r="D633">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.2">
@@ -14021,7 +14021,7 @@
         <v>461</v>
       </c>
       <c r="D634">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.2">
@@ -14035,7 +14035,7 @@
         <v>474</v>
       </c>
       <c r="D635">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.2">
@@ -14049,7 +14049,7 @@
         <v>832</v>
       </c>
       <c r="D636">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.2">
@@ -14063,7 +14063,7 @@
         <v>540</v>
       </c>
       <c r="D637">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.2">
@@ -14077,7 +14077,7 @@
         <v>550</v>
       </c>
       <c r="D638">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.2">
@@ -14091,7 +14091,7 @@
         <v>911</v>
       </c>
       <c r="D639">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.2">
@@ -14105,7 +14105,7 @@
         <v>17</v>
       </c>
       <c r="D640">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
@@ -14119,7 +14119,7 @@
         <v>34</v>
       </c>
       <c r="D641">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
@@ -14133,7 +14133,7 @@
         <v>912</v>
       </c>
       <c r="D642">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.2">
@@ -14147,7 +14147,7 @@
         <v>913</v>
       </c>
       <c r="D643">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.2">
@@ -14161,7 +14161,7 @@
         <v>76</v>
       </c>
       <c r="D644">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.2">
@@ -14175,7 +14175,7 @@
         <v>86</v>
       </c>
       <c r="D645">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.2">
@@ -14189,7 +14189,7 @@
         <v>89</v>
       </c>
       <c r="D646">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
@@ -14203,7 +14203,7 @@
         <v>108</v>
       </c>
       <c r="D647">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
@@ -14217,7 +14217,7 @@
         <v>109</v>
       </c>
       <c r="D648">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
@@ -14231,7 +14231,7 @@
         <v>115</v>
       </c>
       <c r="D649">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
@@ -14245,7 +14245,7 @@
         <v>914</v>
       </c>
       <c r="D650">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
@@ -14259,7 +14259,7 @@
         <v>915</v>
       </c>
       <c r="D651">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.2">
@@ -14273,7 +14273,7 @@
         <v>916</v>
       </c>
       <c r="D652">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
@@ -14287,7 +14287,7 @@
         <v>917</v>
       </c>
       <c r="D653">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
@@ -14301,7 +14301,7 @@
         <v>918</v>
       </c>
       <c r="D654">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.2">
@@ -14315,7 +14315,7 @@
         <v>919</v>
       </c>
       <c r="D655">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.2">
@@ -14329,7 +14329,7 @@
         <v>920</v>
       </c>
       <c r="D656">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.2">
@@ -14343,7 +14343,7 @@
         <v>143</v>
       </c>
       <c r="D657">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.2">
@@ -14357,7 +14357,7 @@
         <v>921</v>
       </c>
       <c r="D658">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.2">
@@ -14371,7 +14371,7 @@
         <v>922</v>
       </c>
       <c r="D659">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.2">
@@ -14385,7 +14385,7 @@
         <v>923</v>
       </c>
       <c r="D660">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.2">
@@ -14399,7 +14399,7 @@
         <v>146</v>
       </c>
       <c r="D661">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
@@ -14413,7 +14413,7 @@
         <v>924</v>
       </c>
       <c r="D662">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.2">
@@ -14427,7 +14427,7 @@
         <v>151</v>
       </c>
       <c r="D663">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.2">
@@ -14441,7 +14441,7 @@
         <v>925</v>
       </c>
       <c r="D664">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.2">
@@ -14455,7 +14455,7 @@
         <v>926</v>
       </c>
       <c r="D665">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.2">
@@ -14469,7 +14469,7 @@
         <v>155</v>
       </c>
       <c r="D666">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.2">
@@ -14483,7 +14483,7 @@
         <v>158</v>
       </c>
       <c r="D667">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.2">
@@ -14497,7 +14497,7 @@
         <v>162</v>
       </c>
       <c r="D668">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.2">
@@ -14511,7 +14511,7 @@
         <v>163</v>
       </c>
       <c r="D669">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
@@ -14525,7 +14525,7 @@
         <v>163</v>
       </c>
       <c r="D670">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
@@ -14539,7 +14539,7 @@
         <v>927</v>
       </c>
       <c r="D671">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
@@ -14553,7 +14553,7 @@
         <v>174</v>
       </c>
       <c r="D672">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
@@ -14567,7 +14567,7 @@
         <v>174</v>
       </c>
       <c r="D673">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.2">
@@ -14581,7 +14581,7 @@
         <v>928</v>
       </c>
       <c r="D674">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.2">
@@ -14595,7 +14595,7 @@
         <v>176</v>
       </c>
       <c r="D675">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.2">
@@ -14609,7 +14609,7 @@
         <v>185</v>
       </c>
       <c r="D676">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.2">
@@ -14623,7 +14623,7 @@
         <v>929</v>
       </c>
       <c r="D677">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.2">
@@ -14637,7 +14637,7 @@
         <v>197</v>
       </c>
       <c r="D678">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.2">
@@ -14651,7 +14651,7 @@
         <v>203</v>
       </c>
       <c r="D679">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.2">
@@ -14665,7 +14665,7 @@
         <v>222</v>
       </c>
       <c r="D680">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
@@ -14679,7 +14679,7 @@
         <v>225</v>
       </c>
       <c r="D681">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
@@ -14693,7 +14693,7 @@
         <v>930</v>
       </c>
       <c r="D682">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.2">
@@ -14707,7 +14707,7 @@
         <v>931</v>
       </c>
       <c r="D683">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.2">
@@ -14721,7 +14721,7 @@
         <v>932</v>
       </c>
       <c r="D684">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.2">
@@ -14735,7 +14735,7 @@
         <v>255</v>
       </c>
       <c r="D685">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.2">
@@ -14749,7 +14749,7 @@
         <v>275</v>
       </c>
       <c r="D686">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.2">
@@ -14763,7 +14763,7 @@
         <v>294</v>
       </c>
       <c r="D687">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.2">
@@ -14777,7 +14777,7 @@
         <v>294</v>
       </c>
       <c r="D688">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.2">
@@ -14791,7 +14791,7 @@
         <v>933</v>
       </c>
       <c r="D689">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
@@ -14805,7 +14805,7 @@
         <v>302</v>
       </c>
       <c r="D690">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.2">
@@ -14819,7 +14819,7 @@
         <v>934</v>
       </c>
       <c r="D691">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.2">
@@ -14833,7 +14833,7 @@
         <v>310</v>
       </c>
       <c r="D692">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.2">
@@ -14847,7 +14847,7 @@
         <v>935</v>
       </c>
       <c r="D693">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.2">
@@ -14861,7 +14861,7 @@
         <v>936</v>
       </c>
       <c r="D694">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.2">
@@ -14875,7 +14875,7 @@
         <v>937</v>
       </c>
       <c r="D695">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.2">
@@ -14889,7 +14889,7 @@
         <v>382</v>
       </c>
       <c r="D696">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.2">
@@ -14903,7 +14903,7 @@
         <v>384</v>
       </c>
       <c r="D697">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.2">
@@ -14917,7 +14917,7 @@
         <v>938</v>
       </c>
       <c r="D698">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.2">
@@ -14931,7 +14931,7 @@
         <v>939</v>
       </c>
       <c r="D699">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.2">
@@ -14945,7 +14945,7 @@
         <v>427</v>
       </c>
       <c r="D700">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.2">
@@ -14959,7 +14959,7 @@
         <v>427</v>
       </c>
       <c r="D701">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.2">
@@ -14973,7 +14973,7 @@
         <v>435</v>
       </c>
       <c r="D702">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.2">
@@ -14987,7 +14987,7 @@
         <v>438</v>
       </c>
       <c r="D703">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.2">
@@ -15001,7 +15001,7 @@
         <v>441</v>
       </c>
       <c r="D704">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.2">
@@ -15015,7 +15015,7 @@
         <v>442</v>
       </c>
       <c r="D705">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.2">
@@ -15029,7 +15029,7 @@
         <v>448</v>
       </c>
       <c r="D706">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.2">
@@ -15043,7 +15043,7 @@
         <v>460</v>
       </c>
       <c r="D707">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.2">
@@ -15057,7 +15057,7 @@
         <v>940</v>
       </c>
       <c r="D708">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.2">
@@ -15071,7 +15071,7 @@
         <v>466</v>
       </c>
       <c r="D709">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.2">
@@ -15085,7 +15085,7 @@
         <v>473</v>
       </c>
       <c r="D710">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.2">
@@ -15099,7 +15099,7 @@
         <v>482</v>
       </c>
       <c r="D711">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.2">
@@ -15113,7 +15113,7 @@
         <v>482</v>
       </c>
       <c r="D712">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.2">
@@ -15127,7 +15127,7 @@
         <v>941</v>
       </c>
       <c r="D713">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.2">
@@ -15141,7 +15141,7 @@
         <v>489</v>
       </c>
       <c r="D714">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.2">
@@ -15155,7 +15155,7 @@
         <v>494</v>
       </c>
       <c r="D715">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.2">
@@ -15169,7 +15169,7 @@
         <v>507</v>
       </c>
       <c r="D716">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.2">
@@ -15183,7 +15183,7 @@
         <v>509</v>
       </c>
       <c r="D717">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.2">
@@ -15197,7 +15197,7 @@
         <v>521</v>
       </c>
       <c r="D718">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.2">
@@ -15211,7 +15211,7 @@
         <v>525</v>
       </c>
       <c r="D719">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.2">
@@ -15225,7 +15225,7 @@
         <v>527</v>
       </c>
       <c r="D720">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
@@ -15239,7 +15239,7 @@
         <v>533</v>
       </c>
       <c r="D721">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
@@ -15253,7 +15253,7 @@
         <v>942</v>
       </c>
       <c r="D722">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
@@ -15267,7 +15267,7 @@
         <v>546</v>
       </c>
       <c r="D723">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
@@ -15281,7 +15281,7 @@
         <v>547</v>
       </c>
       <c r="D724">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
@@ -15295,7 +15295,7 @@
         <v>943</v>
       </c>
       <c r="D725">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.2">
@@ -15309,7 +15309,7 @@
         <v>571</v>
       </c>
       <c r="D726">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.2">
@@ -15323,7 +15323,7 @@
         <v>590</v>
       </c>
       <c r="D727">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
@@ -15337,7 +15337,7 @@
         <v>597</v>
       </c>
       <c r="D728">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
@@ -15351,7 +15351,7 @@
         <v>1079</v>
       </c>
       <c r="D729">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
@@ -15365,7 +15365,7 @@
         <v>16</v>
       </c>
       <c r="D730">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.2">
@@ -15379,7 +15379,7 @@
         <v>1080</v>
       </c>
       <c r="D731">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.2">
@@ -15393,7 +15393,7 @@
         <v>1081</v>
       </c>
       <c r="D732">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.2">
@@ -15407,7 +15407,7 @@
         <v>6</v>
       </c>
       <c r="D733">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.2">
@@ -15421,7 +15421,7 @@
         <v>1082</v>
       </c>
       <c r="D734">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
@@ -15435,7 +15435,7 @@
         <v>1083</v>
       </c>
       <c r="D735">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
@@ -15449,7 +15449,7 @@
         <v>10</v>
       </c>
       <c r="D736">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
@@ -15463,7 +15463,7 @@
         <v>1084</v>
       </c>
       <c r="D737">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.2">
@@ -15477,7 +15477,7 @@
         <v>16</v>
       </c>
       <c r="D738">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
@@ -15491,7 +15491,7 @@
         <v>1085</v>
       </c>
       <c r="D739">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
@@ -15505,7 +15505,7 @@
         <v>1086</v>
       </c>
       <c r="D740">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.2">
@@ -15519,7 +15519,7 @@
         <v>21</v>
       </c>
       <c r="D741">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.2">
@@ -15533,7 +15533,7 @@
         <v>1087</v>
       </c>
       <c r="D742">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
@@ -15547,7 +15547,7 @@
         <v>22</v>
       </c>
       <c r="D743">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
@@ -15561,7 +15561,7 @@
         <v>22</v>
       </c>
       <c r="D744">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.2">
@@ -15575,7 +15575,7 @@
         <v>1088</v>
       </c>
       <c r="D745">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.2">
@@ -15589,7 +15589,7 @@
         <v>28</v>
       </c>
       <c r="D746">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.2">
@@ -15603,7 +15603,7 @@
         <v>29</v>
       </c>
       <c r="D747">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
@@ -15617,7 +15617,7 @@
         <v>29</v>
       </c>
       <c r="D748">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.2">
@@ -15631,7 +15631,7 @@
         <v>32</v>
       </c>
       <c r="D749">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.2">
@@ -15645,7 +15645,7 @@
         <v>1089</v>
       </c>
       <c r="D750">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
@@ -15659,7 +15659,7 @@
         <v>34</v>
       </c>
       <c r="D751">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.2">
@@ -15673,7 +15673,7 @@
         <v>1090</v>
       </c>
       <c r="D752">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.2">
@@ -15687,7 +15687,7 @@
         <v>1091</v>
       </c>
       <c r="D753">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.2">
@@ -15701,7 +15701,7 @@
         <v>42</v>
       </c>
       <c r="D754">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.2">
@@ -15715,7 +15715,7 @@
         <v>43</v>
       </c>
       <c r="D755">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.2">
@@ -15729,7 +15729,7 @@
         <v>43</v>
       </c>
       <c r="D756">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.2">
@@ -15743,7 +15743,7 @@
         <v>43</v>
       </c>
       <c r="D757">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.2">
@@ -15757,7 +15757,7 @@
         <v>1092</v>
       </c>
       <c r="D758">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.2">
@@ -15771,7 +15771,7 @@
         <v>47</v>
       </c>
       <c r="D759">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.2">
@@ -15785,7 +15785,7 @@
         <v>49</v>
       </c>
       <c r="D760">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.2">
@@ -15799,7 +15799,7 @@
         <v>1093</v>
       </c>
       <c r="D761">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.2">
@@ -15813,7 +15813,7 @@
         <v>1094</v>
       </c>
       <c r="D762">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.2">
@@ -15827,7 +15827,7 @@
         <v>1095</v>
       </c>
       <c r="D763">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.2">
@@ -15841,7 +15841,7 @@
         <v>63</v>
       </c>
       <c r="D764">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.2">
@@ -15855,7 +15855,7 @@
         <v>1096</v>
       </c>
       <c r="D765">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.2">
@@ -15869,7 +15869,7 @@
         <v>73</v>
       </c>
       <c r="D766">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.2">
@@ -15883,7 +15883,7 @@
         <v>77</v>
       </c>
       <c r="D767">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.2">
@@ -15897,7 +15897,7 @@
         <v>77</v>
       </c>
       <c r="D768">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.2">
@@ -15911,7 +15911,7 @@
         <v>1097</v>
       </c>
       <c r="D769">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.2">
@@ -15925,7 +15925,7 @@
         <v>82</v>
       </c>
       <c r="D770">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.2">
@@ -15939,7 +15939,7 @@
         <v>1098</v>
       </c>
       <c r="D771">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.2">
@@ -15953,7 +15953,7 @@
         <v>89</v>
       </c>
       <c r="D772">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.2">
@@ -15967,7 +15967,7 @@
         <v>93</v>
       </c>
       <c r="D773">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.2">
@@ -15981,7 +15981,7 @@
         <v>94</v>
       </c>
       <c r="D774">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.2">
@@ -15995,7 +15995,7 @@
         <v>94</v>
       </c>
       <c r="D775">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.2">
@@ -16009,7 +16009,7 @@
         <v>97</v>
       </c>
       <c r="D776">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.2">
@@ -16023,7 +16023,7 @@
         <v>100</v>
       </c>
       <c r="D777">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.2">
@@ -16037,7 +16037,7 @@
         <v>101</v>
       </c>
       <c r="D778">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.2">
@@ -16051,7 +16051,7 @@
         <v>103</v>
       </c>
       <c r="D779">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.2">
@@ -16065,7 +16065,7 @@
         <v>103</v>
       </c>
       <c r="D780">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.2">
@@ -16079,7 +16079,7 @@
         <v>107</v>
       </c>
       <c r="D781">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.2">
@@ -16093,7 +16093,7 @@
         <v>108</v>
       </c>
       <c r="D782">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.2">
@@ -16107,7 +16107,7 @@
         <v>108</v>
       </c>
       <c r="D783">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.2">
@@ -16121,7 +16121,7 @@
         <v>108</v>
       </c>
       <c r="D784">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.2">
@@ -16135,7 +16135,7 @@
         <v>1099</v>
       </c>
       <c r="D785">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.2">
@@ -16149,7 +16149,7 @@
         <v>1100</v>
       </c>
       <c r="D786">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.2">
@@ -16163,7 +16163,7 @@
         <v>1101</v>
       </c>
       <c r="D787">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.2">
@@ -16177,7 +16177,7 @@
         <v>121</v>
       </c>
       <c r="D788">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.2">
@@ -16191,7 +16191,7 @@
         <v>123</v>
       </c>
       <c r="D789">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.2">
@@ -16205,7 +16205,7 @@
         <v>1102</v>
       </c>
       <c r="D790">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.2">
@@ -16219,7 +16219,7 @@
         <v>135</v>
       </c>
       <c r="D791">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.2">
@@ -16233,7 +16233,7 @@
         <v>1103</v>
       </c>
       <c r="D792">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.2">
@@ -16247,7 +16247,7 @@
         <v>147</v>
       </c>
       <c r="D793">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.2">
@@ -16261,7 +16261,7 @@
         <v>1104</v>
       </c>
       <c r="D794">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.2">
@@ -16275,7 +16275,7 @@
         <v>1105</v>
       </c>
       <c r="D795">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.2">
@@ -16289,7 +16289,7 @@
         <v>155</v>
       </c>
       <c r="D796">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.2">
@@ -16303,7 +16303,7 @@
         <v>180</v>
       </c>
       <c r="D797">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.2">
@@ -16317,7 +16317,7 @@
         <v>185</v>
       </c>
       <c r="D798">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.2">
@@ -16331,7 +16331,7 @@
         <v>1106</v>
       </c>
       <c r="D799">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.2">
@@ -16345,7 +16345,7 @@
         <v>1107</v>
       </c>
       <c r="D800">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.2">
@@ -16359,7 +16359,7 @@
         <v>1108</v>
       </c>
       <c r="D801">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.2">
@@ -16373,7 +16373,7 @@
         <v>1109</v>
       </c>
       <c r="D802">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.2">
@@ -16387,7 +16387,7 @@
         <v>1109</v>
       </c>
       <c r="D803">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.2">
@@ -16401,7 +16401,7 @@
         <v>200</v>
       </c>
       <c r="D804">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.2">
@@ -16415,7 +16415,7 @@
         <v>208</v>
       </c>
       <c r="D805">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.2">
@@ -16429,7 +16429,7 @@
         <v>208</v>
       </c>
       <c r="D806">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.2">
@@ -16443,7 +16443,7 @@
         <v>1110</v>
       </c>
       <c r="D807">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.2">
@@ -16457,7 +16457,7 @@
         <v>208</v>
       </c>
       <c r="D808">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.2">
@@ -16471,7 +16471,7 @@
         <v>211</v>
       </c>
       <c r="D809">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.2">
@@ -16485,7 +16485,7 @@
         <v>1111</v>
       </c>
       <c r="D810">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.2">
@@ -16499,7 +16499,7 @@
         <v>222</v>
       </c>
       <c r="D811">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.2">
@@ -16513,7 +16513,7 @@
         <v>230</v>
       </c>
       <c r="D812">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.2">
@@ -16527,7 +16527,7 @@
         <v>235</v>
       </c>
       <c r="D813">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.2">
@@ -16541,7 +16541,7 @@
         <v>1112</v>
       </c>
       <c r="D814">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.2">
@@ -16555,7 +16555,7 @@
         <v>242</v>
       </c>
       <c r="D815">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.2">
@@ -16569,7 +16569,7 @@
         <v>243</v>
       </c>
       <c r="D816">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.2">
@@ -16583,7 +16583,7 @@
         <v>246</v>
       </c>
       <c r="D817">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.2">
@@ -16597,7 +16597,7 @@
         <v>248</v>
       </c>
       <c r="D818">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.2">
@@ -16611,7 +16611,7 @@
         <v>258</v>
       </c>
       <c r="D819">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.2">
@@ -16625,7 +16625,7 @@
         <v>262</v>
       </c>
       <c r="D820">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.2">
@@ -16639,7 +16639,7 @@
         <v>262</v>
       </c>
       <c r="D821">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.2">
@@ -16653,7 +16653,7 @@
         <v>1113</v>
       </c>
       <c r="D822">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.2">
@@ -16667,7 +16667,7 @@
         <v>264</v>
       </c>
       <c r="D823">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.2">
@@ -16681,7 +16681,7 @@
         <v>1114</v>
       </c>
       <c r="D824">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.2">
@@ -16695,7 +16695,7 @@
         <v>270</v>
       </c>
       <c r="D825">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.2">
@@ -16709,7 +16709,7 @@
         <v>1115</v>
       </c>
       <c r="D826">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.2">
@@ -16723,7 +16723,7 @@
         <v>285</v>
       </c>
       <c r="D827">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.2">
@@ -16737,7 +16737,7 @@
         <v>285</v>
       </c>
       <c r="D828">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.2">
@@ -16751,7 +16751,7 @@
         <v>285</v>
       </c>
       <c r="D829">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.2">
@@ -16765,7 +16765,7 @@
         <v>285</v>
       </c>
       <c r="D830">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.2">
@@ -16779,7 +16779,7 @@
         <v>1116</v>
       </c>
       <c r="D831">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.2">
@@ -16793,7 +16793,7 @@
         <v>288</v>
       </c>
       <c r="D832">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.2">
@@ -16807,7 +16807,7 @@
         <v>292</v>
       </c>
       <c r="D833">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.2">
@@ -16821,7 +16821,7 @@
         <v>296</v>
       </c>
       <c r="D834">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.2">
@@ -16835,7 +16835,7 @@
         <v>310</v>
       </c>
       <c r="D835">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.2">
@@ -16849,7 +16849,7 @@
         <v>310</v>
       </c>
       <c r="D836">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.2">
@@ -16863,7 +16863,7 @@
         <v>310</v>
       </c>
       <c r="D837">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.2">
@@ -16877,7 +16877,7 @@
         <v>310</v>
       </c>
       <c r="D838">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.2">
@@ -16891,7 +16891,7 @@
         <v>312</v>
       </c>
       <c r="D839">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.2">
@@ -16905,7 +16905,7 @@
         <v>314</v>
       </c>
       <c r="D840">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.2">
@@ -16919,7 +16919,7 @@
         <v>317</v>
       </c>
       <c r="D841">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.2">
@@ -16933,7 +16933,7 @@
         <v>317</v>
       </c>
       <c r="D842">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.2">
@@ -16947,7 +16947,7 @@
         <v>1117</v>
       </c>
       <c r="D843">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.2">
@@ -16961,7 +16961,7 @@
         <v>1118</v>
       </c>
       <c r="D844">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.2">
@@ -16975,7 +16975,7 @@
         <v>1119</v>
       </c>
       <c r="D845">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.2">
@@ -16989,7 +16989,7 @@
         <v>343</v>
       </c>
       <c r="D846">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.2">
@@ -17003,7 +17003,7 @@
         <v>1120</v>
       </c>
       <c r="D847">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.2">
@@ -17017,7 +17017,7 @@
         <v>349</v>
       </c>
       <c r="D848">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.2">
@@ -17031,7 +17031,7 @@
         <v>351</v>
       </c>
       <c r="D849">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.2">
@@ -17045,7 +17045,7 @@
         <v>1121</v>
       </c>
       <c r="D850">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.2">
@@ -17059,7 +17059,7 @@
         <v>382</v>
       </c>
       <c r="D851">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.2">
@@ -17073,7 +17073,7 @@
         <v>385</v>
       </c>
       <c r="D852">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.2">
@@ -17087,7 +17087,7 @@
         <v>1122</v>
       </c>
       <c r="D853">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.2">
@@ -17101,7 +17101,7 @@
         <v>403</v>
       </c>
       <c r="D854">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.2">
@@ -17115,7 +17115,7 @@
         <v>403</v>
       </c>
       <c r="D855">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.2">
@@ -17129,7 +17129,7 @@
         <v>426</v>
       </c>
       <c r="D856">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.2">
@@ -17143,7 +17143,7 @@
         <v>430</v>
       </c>
       <c r="D857">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.2">
@@ -17157,7 +17157,7 @@
         <v>430</v>
       </c>
       <c r="D858">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.2">
@@ -17171,7 +17171,7 @@
         <v>433</v>
       </c>
       <c r="D859">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.2">
@@ -17185,7 +17185,7 @@
         <v>443</v>
       </c>
       <c r="D860">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.2">
@@ -17199,7 +17199,7 @@
         <v>472</v>
       </c>
       <c r="D861">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.2">
@@ -17213,7 +17213,7 @@
         <v>479</v>
       </c>
       <c r="D862">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.2">
@@ -17227,7 +17227,7 @@
         <v>488</v>
       </c>
       <c r="D863">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.2">
@@ -17241,7 +17241,7 @@
         <v>498</v>
       </c>
       <c r="D864">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.2">
@@ -17255,7 +17255,7 @@
         <v>504</v>
       </c>
       <c r="D865">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.2">
@@ -17269,7 +17269,7 @@
         <v>518</v>
       </c>
       <c r="D866">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.2">
@@ -17283,7 +17283,7 @@
         <v>518</v>
       </c>
       <c r="D867">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.2">
@@ -17297,7 +17297,7 @@
         <v>518</v>
       </c>
       <c r="D868">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.2">
@@ -17311,7 +17311,7 @@
         <v>523</v>
       </c>
       <c r="D869">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.2">
@@ -17325,7 +17325,7 @@
         <v>523</v>
       </c>
       <c r="D870">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.2">
@@ -17339,7 +17339,7 @@
         <v>527</v>
       </c>
       <c r="D871">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.2">
@@ -17353,7 +17353,7 @@
         <v>535</v>
       </c>
       <c r="D872">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.2">
@@ -17367,7 +17367,7 @@
         <v>540</v>
       </c>
       <c r="D873">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.2">
@@ -17381,7 +17381,7 @@
         <v>540</v>
       </c>
       <c r="D874">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.2">
@@ -17395,7 +17395,7 @@
         <v>587</v>
       </c>
       <c r="D875">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.2">
